--- a/datasets/sport/DublinKerry19.xlsx
+++ b/datasets/sport/DublinKerry19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/Dropbox/R Projects/CT1100/datasets/sport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892A528B-5F1D-8F44-811E-40882793D045}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C225F1EC-E138-724D-B841-D62107EFD578}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16080" xr2:uid="{4C4AFACD-28C2-6A4E-A337-D3B38F165172}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
